--- a/test_results.xlsx
+++ b/test_results.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gokbe\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{DBC69510-9F87-47C5-9534-5203CB00C2C6}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7560" xr2:uid="{760B7426-CA37-4F7E-A664-86479ABD5491}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7560"/>
   </bookViews>
   <sheets>
     <sheet name="Sayfa1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,9 +21,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="21">
   <si>
-    <t>200 Lines</t>
-  </si>
-  <si>
     <t>Average</t>
   </si>
   <si>
@@ -48,18 +39,6 @@
     <t>10 Client</t>
   </si>
   <si>
-    <t>400 Lines</t>
-  </si>
-  <si>
-    <t>600 Lines</t>
-  </si>
-  <si>
-    <t>800 Lines</t>
-  </si>
-  <si>
-    <t>1000 Lines</t>
-  </si>
-  <si>
     <t>Client 1</t>
   </si>
   <si>
@@ -88,12 +67,27 @@
   </si>
   <si>
     <t>Client 10</t>
+  </si>
+  <si>
+    <t>4000 Lines</t>
+  </si>
+  <si>
+    <t>8000 Lines</t>
+  </si>
+  <si>
+    <t>12 000 Lines</t>
+  </si>
+  <si>
+    <t>16 000 Lines</t>
+  </si>
+  <si>
+    <t>20 000 Lines</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -200,7 +194,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -252,7 +246,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -446,108 +440,195 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFAD3F02-80E3-4DC9-8A17-031AAD0E3B3F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C9:H85"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
+    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K73" sqref="K73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="9" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="3:8" x14ac:dyDescent="0.25">
       <c r="D10" t="s">
+        <v>1</v>
+      </c>
+      <c r="E10" t="s">
         <v>2</v>
       </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
         <v>3</v>
       </c>
-      <c r="F10" t="s">
+      <c r="G10" t="s">
         <v>4</v>
       </c>
-      <c r="G10" t="s">
+      <c r="H10" t="s">
         <v>5</v>
-      </c>
-      <c r="H10" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="11" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
-        <v>11</v>
+        <v>6</v>
+      </c>
+      <c r="D11">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="E11">
+        <v>2E-3</v>
+      </c>
+      <c r="F11">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="G11">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="H11">
+        <v>3.0000000000000001E-3</v>
       </c>
     </row>
     <row r="12" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
-        <v>12</v>
+        <v>7</v>
+      </c>
+      <c r="D12">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="E12">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="F12">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="G12">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="H12">
+        <v>4.0000000000000001E-3</v>
       </c>
     </row>
     <row r="13" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D13" s="1"/>
+      <c r="E13">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="F13">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="G13">
+        <v>0.01</v>
+      </c>
+      <c r="H13">
+        <v>1.2999999999999999E-2</v>
+      </c>
     </row>
     <row r="14" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D14" s="1"/>
+      <c r="E14">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="F14">
+        <v>1.4E-2</v>
+      </c>
+      <c r="G14">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="H14">
+        <v>1.2999999999999999E-2</v>
+      </c>
     </row>
     <row r="15" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D15" s="1"/>
       <c r="E15" s="2"/>
+      <c r="F15">
+        <v>1.4E-2</v>
+      </c>
+      <c r="G15">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="H15">
+        <v>1.4E-2</v>
+      </c>
     </row>
     <row r="16" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D16" s="1"/>
       <c r="E16" s="2"/>
+      <c r="F16">
+        <v>1.4E-2</v>
+      </c>
+      <c r="G16">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="H16">
+        <v>1.4999999999999999E-2</v>
+      </c>
     </row>
     <row r="17" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D17" s="1"/>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
+      <c r="G17">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="H17">
+        <v>1.6E-2</v>
+      </c>
     </row>
     <row r="18" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D18" s="1"/>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
+      <c r="G18">
+        <v>1.4E-2</v>
+      </c>
+      <c r="H18">
+        <v>1.7000000000000001E-2</v>
+      </c>
     </row>
     <row r="19" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D19" s="1"/>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
+      <c r="H19">
+        <v>1.9E-2</v>
+      </c>
     </row>
     <row r="20" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D20" s="1"/>
       <c r="E20" s="2"/>
@@ -556,495 +637,855 @@
     </row>
     <row r="21" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
-        <v>1</v>
-      </c>
-      <c r="D21" t="e">
+        <v>0</v>
+      </c>
+      <c r="D21">
         <f>AVERAGE(D11:D12)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E21" t="e">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="E21">
         <f>AVERAGE(E11:E14)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F21" t="e">
+        <v>3.5000000000000005E-3</v>
+      </c>
+      <c r="F21">
         <f>AVERAGE(F11:F16)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G21" t="e">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="G21">
         <f>AVERAGE(G11:G18)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H21" t="e">
+        <v>1.2375000000000001E-2</v>
+      </c>
+      <c r="H21">
         <f>AVERAGE(H11:H20)</f>
-        <v>#DIV/0!</v>
+        <v>1.2666666666666666E-2</v>
       </c>
     </row>
     <row r="25" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
     </row>
     <row r="26" spans="3:8" x14ac:dyDescent="0.25">
       <c r="D26" t="s">
+        <v>1</v>
+      </c>
+      <c r="E26" t="s">
         <v>2</v>
       </c>
-      <c r="E26" t="s">
+      <c r="F26" t="s">
         <v>3</v>
       </c>
-      <c r="F26" t="s">
+      <c r="G26" t="s">
         <v>4</v>
       </c>
-      <c r="G26" t="s">
+      <c r="H26" t="s">
         <v>5</v>
-      </c>
-      <c r="H26" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="27" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
-        <v>11</v>
+        <v>6</v>
+      </c>
+      <c r="D27">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="E27">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="F27">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="G27">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="H27">
+        <v>5.0000000000000001E-3</v>
       </c>
     </row>
     <row r="28" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
-        <v>12</v>
+        <v>7</v>
+      </c>
+      <c r="D28">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="E28">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="F28">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="G28">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="H28">
+        <v>7.0000000000000001E-3</v>
       </c>
     </row>
     <row r="29" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D29" s="1"/>
+      <c r="E29">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="F29">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="G29">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="H29">
+        <v>7.0000000000000001E-3</v>
+      </c>
     </row>
     <row r="30" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D30" s="1"/>
+      <c r="E30">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="F30">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="G30">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="H30">
+        <v>1.7000000000000001E-2</v>
+      </c>
     </row>
     <row r="31" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D31" s="1"/>
       <c r="E31" s="2"/>
+      <c r="F31">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="G31">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="H31">
+        <v>1.7000000000000001E-2</v>
+      </c>
     </row>
     <row r="32" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D32" s="1"/>
       <c r="E32" s="2"/>
+      <c r="F32">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="G32">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="H32">
+        <v>1.7999999999999999E-2</v>
+      </c>
     </row>
     <row r="33" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D33" s="1"/>
       <c r="E33" s="2"/>
       <c r="F33" s="2"/>
+      <c r="G33">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="H33">
+        <v>2.3E-2</v>
+      </c>
     </row>
     <row r="34" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D34" s="1"/>
       <c r="E34" s="2"/>
       <c r="F34" s="2"/>
+      <c r="G34">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="H34">
+        <v>1.4999999999999999E-2</v>
+      </c>
     </row>
     <row r="35" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D35" s="1"/>
       <c r="E35" s="2"/>
       <c r="F35" s="2"/>
       <c r="G35" s="2"/>
+      <c r="H35">
+        <v>2.5999999999999999E-2</v>
+      </c>
     </row>
     <row r="36" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D36" s="1"/>
       <c r="E36" s="2"/>
       <c r="F36" s="2"/>
       <c r="G36" s="2"/>
+      <c r="H36">
+        <v>2.7E-2</v>
+      </c>
     </row>
     <row r="37" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
-        <v>1</v>
-      </c>
-      <c r="D37" t="e">
+        <v>0</v>
+      </c>
+      <c r="D37">
         <f>AVERAGE(D27:D28)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E37" t="e">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="E37">
         <f>AVERAGE(E27:E30)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F37" t="e">
+        <v>5.2500000000000003E-3</v>
+      </c>
+      <c r="F37">
         <f>AVERAGE(F27:F32)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G37" t="e">
+        <v>8.5000000000000006E-3</v>
+      </c>
+      <c r="G37">
         <f>AVERAGE(G27:G34)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H37" t="e">
+        <v>9.3749999999999997E-3</v>
+      </c>
+      <c r="H37">
         <f>AVERAGE(H27:H36)</f>
-        <v>#DIV/0!</v>
+        <v>1.6199999999999999E-2</v>
       </c>
     </row>
     <row r="41" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
     </row>
     <row r="42" spans="3:8" x14ac:dyDescent="0.25">
       <c r="D42" t="s">
+        <v>1</v>
+      </c>
+      <c r="E42" t="s">
         <v>2</v>
       </c>
-      <c r="E42" t="s">
+      <c r="F42" t="s">
         <v>3</v>
       </c>
-      <c r="F42" t="s">
+      <c r="G42" t="s">
         <v>4</v>
       </c>
-      <c r="G42" t="s">
+      <c r="H42" t="s">
         <v>5</v>
-      </c>
-      <c r="H42" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="43" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
-        <v>11</v>
+        <v>6</v>
+      </c>
+      <c r="D43">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="E43">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="F43">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="G43">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="H43">
+        <v>7.0000000000000001E-3</v>
       </c>
     </row>
     <row r="44" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
-        <v>12</v>
+        <v>7</v>
+      </c>
+      <c r="D44">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="E44">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="F44">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="G44">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="H44">
+        <v>7.0000000000000001E-3</v>
       </c>
     </row>
     <row r="45" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D45" s="1"/>
+      <c r="E45">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="F45">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="G45">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="H45">
+        <v>1.2999999999999999E-2</v>
+      </c>
     </row>
     <row r="46" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D46" s="1"/>
+      <c r="E46">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="F46">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="G46">
+        <v>0.01</v>
+      </c>
+      <c r="H46">
+        <v>1.7000000000000001E-2</v>
+      </c>
     </row>
     <row r="47" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D47" s="1"/>
       <c r="E47" s="2"/>
+      <c r="F47">
+        <v>1.2E-2</v>
+      </c>
+      <c r="G47">
+        <v>0.01</v>
+      </c>
+      <c r="H47">
+        <v>2.1999999999999999E-2</v>
+      </c>
     </row>
     <row r="48" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D48" s="1"/>
       <c r="E48" s="2"/>
+      <c r="F48">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="G48">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="H48">
+        <v>2.1999999999999999E-2</v>
+      </c>
     </row>
     <row r="49" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C49" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D49" s="1"/>
       <c r="E49" s="2"/>
       <c r="F49" s="2"/>
+      <c r="G49">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="H49">
+        <v>2.3E-2</v>
+      </c>
     </row>
     <row r="50" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C50" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D50" s="1"/>
       <c r="E50" s="2"/>
       <c r="F50" s="2"/>
+      <c r="G50">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="H50">
+        <v>2.3E-2</v>
+      </c>
     </row>
     <row r="51" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C51" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D51" s="1"/>
       <c r="E51" s="2"/>
       <c r="F51" s="2"/>
       <c r="G51" s="2"/>
+      <c r="H51">
+        <v>2.3E-2</v>
+      </c>
     </row>
     <row r="52" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C52" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D52" s="1"/>
       <c r="E52" s="2"/>
       <c r="F52" s="2"/>
       <c r="G52" s="2"/>
+      <c r="H52">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="53" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C53" t="s">
-        <v>1</v>
-      </c>
-      <c r="D53" t="e">
+        <v>0</v>
+      </c>
+      <c r="D53">
         <f>AVERAGE(D43:D44)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E53" t="e">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="E53">
         <f>AVERAGE(E43:E46)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F53" t="e">
+        <v>5.2500000000000003E-3</v>
+      </c>
+      <c r="F53">
         <f>AVERAGE(F43:F48)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G53" t="e">
+        <v>8.5000000000000006E-3</v>
+      </c>
+      <c r="G53">
         <f>AVERAGE(G43:G50)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H53" t="e">
+        <v>9.4999999999999998E-3</v>
+      </c>
+      <c r="H53">
         <f>AVERAGE(H43:H52)</f>
-        <v>#DIV/0!</v>
+        <v>1.7699999999999997E-2</v>
       </c>
     </row>
     <row r="57" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C57" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
     </row>
     <row r="58" spans="3:8" x14ac:dyDescent="0.25">
       <c r="D58" t="s">
+        <v>1</v>
+      </c>
+      <c r="E58" t="s">
         <v>2</v>
       </c>
-      <c r="E58" t="s">
+      <c r="F58" t="s">
         <v>3</v>
       </c>
-      <c r="F58" t="s">
+      <c r="G58" t="s">
         <v>4</v>
       </c>
-      <c r="G58" t="s">
+      <c r="H58" t="s">
         <v>5</v>
-      </c>
-      <c r="H58" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="59" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C59" t="s">
-        <v>11</v>
+        <v>6</v>
+      </c>
+      <c r="D59">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="E59">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="F59">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="G59">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="H59">
+        <v>0.01</v>
       </c>
     </row>
     <row r="60" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C60" t="s">
-        <v>12</v>
+        <v>7</v>
+      </c>
+      <c r="D60">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="E60">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="F60">
+        <v>0.01</v>
+      </c>
+      <c r="G60">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="H60">
+        <v>0.01</v>
       </c>
     </row>
     <row r="61" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C61" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D61" s="1"/>
+      <c r="E61">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="F61">
+        <v>0.01</v>
+      </c>
+      <c r="G61">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="H61">
+        <v>1.2E-2</v>
+      </c>
     </row>
     <row r="62" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C62" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D62" s="1"/>
+      <c r="E62">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="F62">
+        <v>0.01</v>
+      </c>
+      <c r="G62">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="H62">
+        <v>1.7999999999999999E-2</v>
+      </c>
     </row>
     <row r="63" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C63" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D63" s="1"/>
       <c r="E63" s="2"/>
+      <c r="F63">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="G63">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="H63">
+        <v>1.7000000000000001E-2</v>
+      </c>
     </row>
     <row r="64" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C64" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D64" s="1"/>
       <c r="E64" s="2"/>
+      <c r="F64">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="G64">
+        <v>2.3E-2</v>
+      </c>
+      <c r="H64">
+        <v>2.1000000000000001E-2</v>
+      </c>
     </row>
     <row r="65" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C65" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D65" s="1"/>
       <c r="E65" s="2"/>
       <c r="F65" s="2"/>
+      <c r="G65">
+        <v>2.3E-2</v>
+      </c>
+      <c r="H65">
+        <v>2.5000000000000001E-2</v>
+      </c>
     </row>
     <row r="66" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C66" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D66" s="1"/>
       <c r="E66" s="2"/>
       <c r="F66" s="2"/>
+      <c r="G66">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="H66">
+        <v>2.7E-2</v>
+      </c>
     </row>
     <row r="67" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C67" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D67" s="1"/>
       <c r="E67" s="2"/>
       <c r="F67" s="2"/>
       <c r="G67" s="2"/>
+      <c r="H67">
+        <v>2.5999999999999999E-2</v>
+      </c>
     </row>
     <row r="68" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C68" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D68" s="1"/>
       <c r="E68" s="2"/>
       <c r="F68" s="2"/>
       <c r="G68" s="2"/>
+      <c r="H68">
+        <v>3.4000000000000002E-2</v>
+      </c>
     </row>
     <row r="69" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C69" t="s">
-        <v>1</v>
-      </c>
-      <c r="D69" t="e">
+        <v>0</v>
+      </c>
+      <c r="D69">
         <f>AVERAGE(D59:D60)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E69" t="e">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="E69">
         <f>AVERAGE(E59:E62)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F69" t="e">
+        <v>7.2499999999999995E-3</v>
+      </c>
+      <c r="F69">
         <f>AVERAGE(F59:F64)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G69" t="e">
+        <v>1.0500000000000001E-2</v>
+      </c>
+      <c r="G69">
         <f>AVERAGE(G59:G66)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H69" t="e">
+        <v>1.7374999999999998E-2</v>
+      </c>
+      <c r="H69">
         <f>AVERAGE(H59:H68)</f>
-        <v>#DIV/0!</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="73" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C73" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="74" spans="3:8" x14ac:dyDescent="0.25">
       <c r="D74" t="s">
+        <v>1</v>
+      </c>
+      <c r="E74" t="s">
         <v>2</v>
       </c>
-      <c r="E74" t="s">
+      <c r="F74" t="s">
         <v>3</v>
       </c>
-      <c r="F74" t="s">
+      <c r="G74" t="s">
         <v>4</v>
       </c>
-      <c r="G74" t="s">
+      <c r="H74" t="s">
         <v>5</v>
-      </c>
-      <c r="H74" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="75" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C75" t="s">
-        <v>11</v>
+        <v>6</v>
+      </c>
+      <c r="D75">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="E75">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="F75">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="G75">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="H75">
+        <v>0.08</v>
       </c>
     </row>
     <row r="76" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C76" t="s">
-        <v>12</v>
+        <v>7</v>
+      </c>
+      <c r="D76">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="E76">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="F76">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="G76">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="H76">
+        <v>1.4999999999999999E-2</v>
       </c>
     </row>
     <row r="77" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C77" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D77" s="1"/>
+      <c r="E77">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="F77">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="G77">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="H77">
+        <v>1.7999999999999999E-2</v>
+      </c>
     </row>
     <row r="78" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C78" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D78" s="1"/>
+      <c r="E78">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="F78">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="G78">
+        <v>1.9E-2</v>
+      </c>
+      <c r="H78">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="79" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C79" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D79" s="1"/>
       <c r="E79" s="2"/>
+      <c r="F79">
+        <v>1.4E-2</v>
+      </c>
+      <c r="G79">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="H79">
+        <v>2.1999999999999999E-2</v>
+      </c>
     </row>
     <row r="80" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C80" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D80" s="1"/>
       <c r="E80" s="2"/>
+      <c r="F80">
+        <v>2.4E-2</v>
+      </c>
+      <c r="G80">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="H80">
+        <v>2.4E-2</v>
+      </c>
     </row>
     <row r="81" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C81" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D81" s="1"/>
       <c r="E81" s="2"/>
       <c r="F81" s="2"/>
+      <c r="G81">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="H81">
+        <v>2.5999999999999999E-2</v>
+      </c>
     </row>
     <row r="82" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C82" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D82" s="1"/>
       <c r="E82" s="2"/>
       <c r="F82" s="2"/>
+      <c r="G82">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="H82">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="83" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C83" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D83" s="1"/>
       <c r="E83" s="2"/>
       <c r="F83" s="2"/>
       <c r="G83" s="2"/>
+      <c r="H83">
+        <v>3.3000000000000002E-2</v>
+      </c>
     </row>
     <row r="84" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C84" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D84" s="1"/>
       <c r="E84" s="2"/>
       <c r="F84" s="2"/>
       <c r="G84" s="2"/>
+      <c r="H84">
+        <v>3.7999999999999999E-2</v>
+      </c>
     </row>
     <row r="85" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C85" t="s">
-        <v>1</v>
-      </c>
-      <c r="D85" t="e">
+        <v>0</v>
+      </c>
+      <c r="D85">
         <f>AVERAGE(D75:D76)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E85" t="e">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="E85">
         <f>AVERAGE(E75:E78)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F85" t="e">
+        <v>1.0249999999999999E-2</v>
+      </c>
+      <c r="F85">
         <f>AVERAGE(F75:F80)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G85" t="e">
+        <v>1.1000000000000001E-2</v>
+      </c>
+      <c r="G85">
         <f>AVERAGE(G75:G82)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H85" t="e">
+        <v>1.9875E-2</v>
+      </c>
+      <c r="H85">
         <f>AVERAGE(H75:H84)</f>
-        <v>#DIV/0!</v>
+        <v>3.0599999999999999E-2</v>
       </c>
     </row>
   </sheetData>

--- a/test_results.xlsx
+++ b/test_results.xlsx
@@ -1,15 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gokbe\Desktop\cs342-project2\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{47CE9207-60C8-4B2F-A84B-C2FA79EA539E}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7560"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7560" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sayfa1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sayfa2" sheetId="2" r:id="rId1"/>
+    <sheet name="Sayfa1" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="162913"/>
+  <pivotCaches>
+    <pivotCache cacheId="9" r:id="rId3"/>
+  </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -19,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="26">
   <si>
     <t>Average</t>
   </si>
@@ -82,13 +92,28 @@
   </si>
   <si>
     <t>20 000 Lines</t>
+  </si>
+  <si>
+    <t>Toplam 0.003</t>
+  </si>
+  <si>
+    <t>Toplam 0.0035</t>
+  </si>
+  <si>
+    <t>Toplam 0.009</t>
+  </si>
+  <si>
+    <t>Toplam 0.012375</t>
+  </si>
+  <si>
+    <t>Toplam 0.0131</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -103,8 +128,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="162"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -117,8 +150,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF4472C4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -126,14 +165,64 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FFFFFFFF"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFFFFFFF"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="FFFFFFFF"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFFFFFFF"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFFFFFFF"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFFFFFFF"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -149,6 +238,121 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Gökberk Karaca" refreshedDate="43194.923191319445" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="4" xr:uid="{224BA0CC-27F8-4C21-A5BF-00F51AFA4607}">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="K10:O14" sheet="Sayfa1"/>
+  </cacheSource>
+  <cacheFields count="5">
+    <cacheField name="0.003" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="3.0000000000000001E-3" maxValue="7.0000000000000001E-3"/>
+    </cacheField>
+    <cacheField name="0.0035" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="5.2500000000000003E-3" maxValue="1.025E-2"/>
+    </cacheField>
+    <cacheField name="0.009" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="8.5000000000000006E-3" maxValue="1.0999999999999999E-2"/>
+    </cacheField>
+    <cacheField name="0.012375" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="9.3749999999999997E-3" maxValue="1.9875E-2"/>
+    </cacheField>
+    <cacheField name="0.0131" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="1.6199999999999999E-2" maxValue="3.0599999999999999E-2"/>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="4">
+  <r>
+    <n v="3.0000000000000001E-3"/>
+    <n v="5.2500000000000003E-3"/>
+    <n v="8.5000000000000006E-3"/>
+    <n v="9.3749999999999997E-3"/>
+    <n v="1.6199999999999999E-2"/>
+  </r>
+  <r>
+    <n v="4.0000000000000001E-3"/>
+    <n v="5.2500000000000003E-3"/>
+    <n v="8.5000000000000006E-3"/>
+    <n v="9.4999999999999998E-3"/>
+    <n v="1.77E-2"/>
+  </r>
+  <r>
+    <n v="5.0000000000000001E-3"/>
+    <n v="7.2500000000000004E-3"/>
+    <n v="1.0500000000000001E-2"/>
+    <n v="1.7375000000000002E-2"/>
+    <n v="0.02"/>
+  </r>
+  <r>
+    <n v="7.0000000000000001E-3"/>
+    <n v="1.025E-2"/>
+    <n v="1.0999999999999999E-2"/>
+    <n v="1.9875E-2"/>
+    <n v="3.0599999999999999E-2"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{6A3C729D-4386-4662-A0D9-377920805529}" name="PivotTable5" cacheId="9" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Değerler" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:E4" firstHeaderRow="0" firstDataRow="1" firstDataCol="0"/>
+  <pivotFields count="5">
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+  </pivotFields>
+  <rowItems count="1">
+    <i/>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="5">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+    <i i="2">
+      <x v="2"/>
+    </i>
+    <i i="3">
+      <x v="3"/>
+    </i>
+    <i i="4">
+      <x v="4"/>
+    </i>
+  </colItems>
+  <dataFields count="5">
+    <dataField name="Toplam 0.003" fld="0" baseField="0" baseItem="0"/>
+    <dataField name="Toplam 0.0035" fld="1" baseField="0" baseItem="0"/>
+    <dataField name="Toplam 0.009" fld="2" baseField="0" baseItem="0"/>
+    <dataField name="Toplam 0.012375" fld="3" baseField="0" baseItem="0"/>
+    <dataField name="Toplam 0.0131" fld="4" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -440,28 +644,84 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C9:H85"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82143FD2-9611-408A-ACDA-EA1580637577}">
+  <dimension ref="A3:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K73" sqref="K73"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="6">
+        <v>1.9E-2</v>
+      </c>
+      <c r="B4" s="6">
+        <v>2.8000000000000004E-2</v>
+      </c>
+      <c r="C4" s="6">
+        <v>3.8500000000000006E-2</v>
+      </c>
+      <c r="D4" s="6">
+        <v>5.6125000000000008E-2</v>
+      </c>
+      <c r="E4" s="6">
+        <v>8.4500000000000006E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="C9:O85"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="V6" sqref="V6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="9" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="3:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="3:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D10" t="s">
         <v>1</v>
       </c>
@@ -477,8 +737,23 @@
       <c r="H10" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="K10" s="3">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="L10" s="4">
+        <v>3.5000000000000001E-3</v>
+      </c>
+      <c r="M10" s="4">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="N10" s="4">
+        <v>1.2375000000000001E-2</v>
+      </c>
+      <c r="O10" s="5">
+        <v>1.3100000000000001E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="3:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>6</v>
       </c>
@@ -497,8 +772,23 @@
       <c r="H11">
         <v>3.0000000000000001E-3</v>
       </c>
-    </row>
-    <row r="12" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="K11" s="3">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="L11" s="4">
+        <v>5.2500000000000003E-3</v>
+      </c>
+      <c r="M11" s="4">
+        <v>8.5000000000000006E-3</v>
+      </c>
+      <c r="N11" s="4">
+        <v>9.3749999999999997E-3</v>
+      </c>
+      <c r="O11" s="5">
+        <v>1.6199999999999999E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="3:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>7</v>
       </c>
@@ -517,8 +807,23 @@
       <c r="H12">
         <v>4.0000000000000001E-3</v>
       </c>
-    </row>
-    <row r="13" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="K12" s="3">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="L12" s="4">
+        <v>5.2500000000000003E-3</v>
+      </c>
+      <c r="M12" s="4">
+        <v>8.5000000000000006E-3</v>
+      </c>
+      <c r="N12" s="4">
+        <v>9.4999999999999998E-3</v>
+      </c>
+      <c r="O12" s="5">
+        <v>1.77E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="3:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>8</v>
       </c>
@@ -535,8 +840,23 @@
       <c r="H13">
         <v>1.2999999999999999E-2</v>
       </c>
-    </row>
-    <row r="14" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="K13" s="3">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="L13" s="4">
+        <v>7.2500000000000004E-3</v>
+      </c>
+      <c r="M13" s="4">
+        <v>1.0500000000000001E-2</v>
+      </c>
+      <c r="N13" s="4">
+        <v>1.7375000000000002E-2</v>
+      </c>
+      <c r="O13" s="5">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="14" spans="3:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>9</v>
       </c>
@@ -553,8 +873,23 @@
       <c r="H14">
         <v>1.2999999999999999E-2</v>
       </c>
-    </row>
-    <row r="15" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="K14" s="3">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="L14" s="4">
+        <v>1.025E-2</v>
+      </c>
+      <c r="M14" s="4">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="N14" s="4">
+        <v>1.9875E-2</v>
+      </c>
+      <c r="O14" s="5">
+        <v>3.0599999999999999E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>10</v>
       </c>
@@ -570,7 +905,7 @@
         <v>1.4E-2</v>
       </c>
     </row>
-    <row r="16" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>11</v>
       </c>
@@ -586,7 +921,7 @@
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="17" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>12</v>
       </c>
@@ -599,8 +934,23 @@
       <c r="H17">
         <v>1.6E-2</v>
       </c>
-    </row>
-    <row r="18" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="K17" s="7">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="L17" s="7">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="M17" s="7">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="N17" s="7">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="O17" s="7">
+        <v>7.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>13</v>
       </c>
@@ -613,8 +963,23 @@
       <c r="H18">
         <v>1.7000000000000001E-2</v>
       </c>
-    </row>
-    <row r="19" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="K18" s="7">
+        <v>3.5000000000000001E-3</v>
+      </c>
+      <c r="L18" s="7">
+        <v>5.2500000000000003E-3</v>
+      </c>
+      <c r="M18" s="7">
+        <v>5.2500000000000003E-3</v>
+      </c>
+      <c r="N18" s="7">
+        <v>7.2500000000000004E-3</v>
+      </c>
+      <c r="O18" s="7">
+        <v>1.025E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>14</v>
       </c>
@@ -625,8 +990,23 @@
       <c r="H19">
         <v>1.9E-2</v>
       </c>
-    </row>
-    <row r="20" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="K19" s="7">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="L19" s="7">
+        <v>8.5000000000000006E-3</v>
+      </c>
+      <c r="M19" s="7">
+        <v>8.5000000000000006E-3</v>
+      </c>
+      <c r="N19" s="7">
+        <v>1.0500000000000001E-2</v>
+      </c>
+      <c r="O19" s="7">
+        <v>1.0999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>15</v>
       </c>
@@ -634,8 +1014,26 @@
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
-    </row>
-    <row r="21" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="H20">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="K20" s="7">
+        <v>0.12375</v>
+      </c>
+      <c r="L20" s="7">
+        <v>9.3749999999999997E-3</v>
+      </c>
+      <c r="M20" s="7">
+        <v>9.4999999999999998E-3</v>
+      </c>
+      <c r="N20" s="7">
+        <v>1.7375000000000002E-2</v>
+      </c>
+      <c r="O20" s="7">
+        <v>1.9875E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>0</v>
       </c>
@@ -657,15 +1055,30 @@
       </c>
       <c r="H21">
         <f>AVERAGE(H11:H20)</f>
-        <v>1.2666666666666666E-2</v>
-      </c>
-    </row>
-    <row r="25" spans="3:8" x14ac:dyDescent="0.25">
+        <v>1.3100000000000001E-2</v>
+      </c>
+      <c r="K21" s="7">
+        <v>1.3100000000000001E-2</v>
+      </c>
+      <c r="L21" s="7">
+        <v>1.6199999999999999E-2</v>
+      </c>
+      <c r="M21" s="7">
+        <v>1.77E-2</v>
+      </c>
+      <c r="N21" s="7">
+        <v>0.02</v>
+      </c>
+      <c r="O21" s="7">
+        <v>3.0599999999999999E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="26" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:15" x14ac:dyDescent="0.25">
       <c r="D26" t="s">
         <v>1</v>
       </c>
@@ -682,7 +1095,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>6</v>
       </c>
@@ -702,7 +1115,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="28" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>7</v>
       </c>
@@ -722,7 +1135,7 @@
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="29" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>8</v>
       </c>
@@ -740,7 +1153,7 @@
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="30" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>9</v>
       </c>
@@ -758,7 +1171,7 @@
         <v>1.7000000000000001E-2</v>
       </c>
     </row>
-    <row r="31" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>10</v>
       </c>
@@ -774,7 +1187,7 @@
         <v>1.7000000000000001E-2</v>
       </c>
     </row>
-    <row r="32" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>11</v>
       </c>
@@ -1490,6 +1903,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>